--- a/GridSearchResults/Hyperparameters_NTSK-RLS_SP500.xlsx
+++ b/GridSearchResults/Hyperparameters_NTSK-RLS_SP500.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>n_clusters</t>
+          <t>rules</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RLS_option</t>
+          <t>adaptive_filter</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -490,17 +490,19 @@
       <c r="D2" t="n">
         <v>0.2</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>315.9332840640187</v>
+        <v>315.9341068301986</v>
       </c>
       <c r="G2" t="n">
-        <v>2.482335993127806</v>
+        <v>2.482342457727154</v>
       </c>
       <c r="H2" t="n">
-        <v>253.8345819307671</v>
+        <v>253.8352562990032</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -521,17 +523,19 @@
       <c r="D3" t="n">
         <v>0.4</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>263.327218405307</v>
+        <v>263.3272106892654</v>
       </c>
       <c r="G3" t="n">
-        <v>2.069002112753862</v>
+        <v>2.069002052127745</v>
       </c>
       <c r="H3" t="n">
-        <v>211.4722180542873</v>
+        <v>211.4722118172076</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -552,17 +556,19 @@
       <c r="D4" t="n">
         <v>0.6</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>126.2347209767189</v>
+        <v>126.234718974284</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9918454536732455</v>
+        <v>0.9918454379398097</v>
       </c>
       <c r="H4" t="n">
-        <v>102.3169708121743</v>
+        <v>102.316969203404</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -583,17 +589,19 @@
       <c r="D5" t="n">
         <v>0.8</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>66.48844022541216</v>
+        <v>66.48844006468295</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5224098144246913</v>
+        <v>0.5224098131618173</v>
       </c>
       <c r="H5" t="n">
-        <v>53.74762752482331</v>
+        <v>53.74762739848315</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -614,17 +622,19 @@
       <c r="D6" t="n">
         <v>0.9</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>41.7866138744035</v>
+        <v>41.78661389888759</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3283237977241636</v>
+        <v>0.3283237979165388</v>
       </c>
       <c r="H6" t="n">
-        <v>33.64266427484754</v>
+        <v>33.64266429758955</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -645,17 +655,19 @@
       <c r="D7" t="n">
         <v>0.91</v>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>40.16089511377356</v>
+        <v>40.16089511457103</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3155502774976683</v>
+        <v>0.3155502775039341</v>
       </c>
       <c r="H7" t="n">
-        <v>32.28595415291774</v>
+        <v>32.28595415376412</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -676,17 +688,19 @@
       <c r="D8" t="n">
         <v>0.92</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F8" t="n">
-        <v>38.88548299710485</v>
+        <v>38.88548299743014</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3055291699949953</v>
+        <v>0.3055291699975511</v>
       </c>
       <c r="H8" t="n">
-        <v>31.08486927182237</v>
+        <v>31.08486927236525</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -707,17 +721,19 @@
       <c r="D9" t="n">
         <v>0.93</v>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F9" t="n">
-        <v>37.94362588257992</v>
+        <v>37.94362588552612</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2981288550117377</v>
+        <v>0.2981288550348864</v>
       </c>
       <c r="H9" t="n">
-        <v>29.9731759861394</v>
+        <v>29.973175989316</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -738,17 +754,19 @@
       <c r="D10" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F10" t="n">
-        <v>37.30799337518293</v>
+        <v>37.30799337902906</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2931345934663353</v>
+        <v>0.2931345934965549</v>
       </c>
       <c r="H10" t="n">
-        <v>29.17586300030123</v>
+        <v>29.17586300515537</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -769,17 +787,19 @@
       <c r="D11" t="n">
         <v>0.95</v>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F11" t="n">
-        <v>36.95548023489906</v>
+        <v>36.95548023488049</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2903648439644125</v>
+        <v>0.2903648439642665</v>
       </c>
       <c r="H11" t="n">
-        <v>28.6154816972907</v>
+        <v>28.61548169724282</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -800,17 +820,19 @@
       <c r="D12" t="n">
         <v>0.96</v>
       </c>
-      <c r="E12" t="n">
-        <v>1</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F12" t="n">
-        <v>36.8703824428049</v>
+        <v>36.87038244280986</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2896962176344046</v>
+        <v>0.2896962176344436</v>
       </c>
       <c r="H12" t="n">
-        <v>28.38345845653511</v>
+        <v>28.3834584565003</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -831,17 +853,19 @@
       <c r="D13" t="n">
         <v>0.97</v>
       </c>
-      <c r="E13" t="n">
-        <v>1</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F13" t="n">
-        <v>37.00364834406149</v>
+        <v>37.00364834393676</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2907433081438009</v>
+        <v>0.2907433081428209</v>
       </c>
       <c r="H13" t="n">
-        <v>28.41857902303401</v>
+        <v>28.41857902300262</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -862,17 +886,19 @@
       <c r="D14" t="n">
         <v>0.98</v>
       </c>
-      <c r="E14" t="n">
-        <v>1</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F14" t="n">
-        <v>37.19231775958749</v>
+        <v>37.19231775957229</v>
       </c>
       <c r="G14" t="n">
-        <v>0.29222571251392</v>
+        <v>0.2922257125138006</v>
       </c>
       <c r="H14" t="n">
-        <v>28.51983986046199</v>
+        <v>28.51983986046487</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -893,17 +919,19 @@
       <c r="D15" t="n">
         <v>0.99</v>
       </c>
-      <c r="E15" t="n">
-        <v>1</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>37.40009775800402</v>
+        <v>37.40009775800063</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2938582716481987</v>
+        <v>0.2938582716481721</v>
       </c>
       <c r="H15" t="n">
-        <v>28.67229858354522</v>
+        <v>28.67229858354404</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -924,17 +952,19 @@
       <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="n">
-        <v>1</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F16" t="n">
-        <v>38.98188145608302</v>
+        <v>38.9818814560824</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3062865873880772</v>
+        <v>0.3062865873880722</v>
       </c>
       <c r="H16" t="n">
-        <v>29.97539273439174</v>
+        <v>29.9753927343908</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
